--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Fgfr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H2">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N2">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q2">
-        <v>3.996532414114889</v>
+        <v>14.87993774064755</v>
       </c>
       <c r="R2">
-        <v>35.968791727034</v>
+        <v>133.919439665828</v>
       </c>
       <c r="S2">
-        <v>0.002813301934008449</v>
+        <v>0.009334586213300527</v>
       </c>
       <c r="T2">
-        <v>0.002813301934008449</v>
+        <v>0.009334586213300527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H3">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q3">
-        <v>45.64565832525523</v>
+        <v>156.8452387925385</v>
       </c>
       <c r="R3">
-        <v>410.810924927297</v>
+        <v>1411.607149132847</v>
       </c>
       <c r="S3">
-        <v>0.03213160949026593</v>
+        <v>0.09839324795393561</v>
       </c>
       <c r="T3">
-        <v>0.03213160949026593</v>
+        <v>0.09839324795393561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H4">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N4">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q4">
-        <v>13.63831159147544</v>
+        <v>104.2441322201201</v>
       </c>
       <c r="R4">
-        <v>122.744804323279</v>
+        <v>938.1971899810809</v>
       </c>
       <c r="S4">
-        <v>0.009600494729230219</v>
+        <v>0.06539515530238121</v>
       </c>
       <c r="T4">
-        <v>0.009600494729230217</v>
+        <v>0.06539515530238121</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H5">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I5">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J5">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N5">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q5">
-        <v>0.4911654707362222</v>
+        <v>2.176955715249889</v>
       </c>
       <c r="R5">
-        <v>4.420489236626</v>
+        <v>19.592601437249</v>
       </c>
       <c r="S5">
-        <v>0.0003457489207044027</v>
+        <v>0.001365663026332868</v>
       </c>
       <c r="T5">
-        <v>0.0003457489207044027</v>
+        <v>0.001365663026332868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>13.593464</v>
       </c>
       <c r="I6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N6">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O6">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P6">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q6">
-        <v>34.51009256994312</v>
+        <v>37.39314847432178</v>
       </c>
       <c r="R6">
-        <v>310.590833129488</v>
+        <v>336.538336268896</v>
       </c>
       <c r="S6">
-        <v>0.02429288696044105</v>
+        <v>0.02345773042227215</v>
       </c>
       <c r="T6">
-        <v>0.02429288696044105</v>
+        <v>0.02345773042227215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.593464</v>
       </c>
       <c r="I7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>260.960411</v>
       </c>
       <c r="O7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q7">
         <v>394.1506613726338</v>
       </c>
       <c r="R7">
-        <v>3547.355952353705</v>
+        <v>3547.355952353704</v>
       </c>
       <c r="S7">
-        <v>0.2774567307433987</v>
+        <v>0.2472613389746721</v>
       </c>
       <c r="T7">
-        <v>0.2774567307433987</v>
+        <v>0.2472613389746721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.593464</v>
       </c>
       <c r="I8">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J8">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N8">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q8">
-        <v>117.7669406251476</v>
+        <v>261.9645580260436</v>
       </c>
       <c r="R8">
-        <v>1059.902465626328</v>
+        <v>2357.681022234392</v>
       </c>
       <c r="S8">
-        <v>0.08290035648224858</v>
+        <v>0.1643374316710585</v>
       </c>
       <c r="T8">
-        <v>0.08290035648224857</v>
+        <v>0.1643374316710585</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.593464</v>
       </c>
       <c r="I9">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J9">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N9">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q9">
-        <v>4.241218162625778</v>
+        <v>5.470669951796444</v>
       </c>
       <c r="R9">
-        <v>38.170963463632</v>
+        <v>49.236029566168</v>
       </c>
       <c r="S9">
-        <v>0.002985544973268883</v>
+        <v>0.003431898788800592</v>
       </c>
       <c r="T9">
-        <v>0.002985544973268883</v>
+        <v>0.003431898788800592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H10">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N10">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O10">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P10">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q10">
-        <v>49.91123100557668</v>
+        <v>32.14830916337645</v>
       </c>
       <c r="R10">
-        <v>449.2010790501901</v>
+        <v>289.3347824703881</v>
       </c>
       <c r="S10">
-        <v>0.03513429847855472</v>
+        <v>0.02016750128447226</v>
       </c>
       <c r="T10">
-        <v>0.03513429847855471</v>
+        <v>0.02016750128447226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H11">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I11">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J11">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>260.960411</v>
       </c>
       <c r="O11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q11">
-        <v>570.0519252708218</v>
+        <v>338.8662852890875</v>
       </c>
       <c r="R11">
-        <v>5130.467327437396</v>
+        <v>3049.796567601788</v>
       </c>
       <c r="S11">
-        <v>0.401279914103942</v>
+        <v>0.2125799589988218</v>
       </c>
       <c r="T11">
-        <v>0.401279914103942</v>
+        <v>0.2125799589988219</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H12">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I12">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J12">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N12">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q12">
-        <v>170.3238832654184</v>
+        <v>225.2208745420779</v>
       </c>
       <c r="R12">
-        <v>1532.914949388765</v>
+        <v>2026.987870878701</v>
       </c>
       <c r="S12">
-        <v>0.1198970658929469</v>
+        <v>0.1412871281514164</v>
       </c>
       <c r="T12">
-        <v>0.1198970658929468</v>
+        <v>0.1412871281514164</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H13">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I13">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J13">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N13">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q13">
-        <v>6.133985848656668</v>
+        <v>4.703342620692111</v>
       </c>
       <c r="R13">
-        <v>55.20587263791001</v>
+        <v>42.33008358622901</v>
       </c>
       <c r="S13">
-        <v>0.004317931762609789</v>
+        <v>0.002950533661415086</v>
       </c>
       <c r="T13">
-        <v>0.004317931762609789</v>
+        <v>0.002950533661415087</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H14">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I14">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J14">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N14">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O14">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P14">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q14">
-        <v>0.6093122244215557</v>
+        <v>0.8559996143911112</v>
       </c>
       <c r="R14">
-        <v>5.483810019794001</v>
+        <v>7.703996529520001</v>
       </c>
       <c r="S14">
-        <v>0.0004289166411677389</v>
+        <v>0.0005369916419245786</v>
       </c>
       <c r="T14">
-        <v>0.0004289166411677387</v>
+        <v>0.0005369916419245786</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H15">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I15">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J15">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>260.960411</v>
       </c>
       <c r="O15">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P15">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q15">
-        <v>6.95914726254189</v>
+        <v>9.022851188331112</v>
       </c>
       <c r="R15">
-        <v>62.63232536287701</v>
+        <v>81.20566069498001</v>
       </c>
       <c r="S15">
-        <v>0.004898792358999215</v>
+        <v>0.005660277870463222</v>
       </c>
       <c r="T15">
-        <v>0.004898792358999214</v>
+        <v>0.005660277870463222</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H16">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I16">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J16">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N16">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O16">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P16">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q16">
-        <v>2.079300031148778</v>
+        <v>5.996862254282223</v>
       </c>
       <c r="R16">
-        <v>18.713700280339</v>
+        <v>53.97176028854</v>
       </c>
       <c r="S16">
-        <v>0.001463693570545009</v>
+        <v>0.003761993410024111</v>
       </c>
       <c r="T16">
-        <v>0.001463693570545008</v>
+        <v>0.003761993410024111</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H17">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I17">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J17">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N17">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O17">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P17">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q17">
-        <v>0.0748831973628889</v>
+        <v>0.1252339415177778</v>
       </c>
       <c r="R17">
-        <v>0.673948776266</v>
+        <v>1.12710547366</v>
       </c>
       <c r="S17">
-        <v>5.27129576684313E-05</v>
+        <v>7.856262870883891E-05</v>
       </c>
       <c r="T17">
-        <v>5.27129576684313E-05</v>
+        <v>7.856262870883891E-05</v>
       </c>
     </row>
   </sheetData>
